--- a/input/input_example.xlsx
+++ b/input/input_example.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khchu\Desktop\test\schoolschedule\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGCube\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="7488" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="spvtxt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="271">
   <si>
     <t>class</t>
   </si>
@@ -30,87 +30,552 @@
     <t>s10</t>
   </si>
   <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
     <t>s11</t>
   </si>
   <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
     <t>s12</t>
   </si>
   <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
     <t>s13</t>
   </si>
   <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>r13</t>
+  </si>
+  <si>
     <t>s14</t>
   </si>
   <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>r14</t>
+  </si>
+  <si>
     <t>s15</t>
   </si>
   <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>r15</t>
+  </si>
+  <si>
     <t>s16</t>
   </si>
   <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>r16</t>
+  </si>
+  <si>
     <t>s17</t>
   </si>
   <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>r17</t>
+  </si>
+  <si>
     <t>s18</t>
   </si>
   <si>
+    <t>c18</t>
+  </si>
+  <si>
+    <t>r18</t>
+  </si>
+  <si>
     <t>s19</t>
   </si>
   <si>
+    <t>c19</t>
+  </si>
+  <si>
+    <t>r19</t>
+  </si>
+  <si>
     <t>s20</t>
   </si>
   <si>
+    <t>c20</t>
+  </si>
+  <si>
+    <t>r20</t>
+  </si>
+  <si>
     <t>s21</t>
   </si>
   <si>
+    <t>c21</t>
+  </si>
+  <si>
+    <t>r21</t>
+  </si>
+  <si>
     <t>s22</t>
   </si>
   <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>r22</t>
+  </si>
+  <si>
     <t>s23</t>
   </si>
   <si>
+    <t>c23</t>
+  </si>
+  <si>
+    <t>r23</t>
+  </si>
+  <si>
     <t>s24</t>
   </si>
   <si>
+    <t>c24</t>
+  </si>
+  <si>
+    <t>r24</t>
+  </si>
+  <si>
     <t>s25</t>
   </si>
   <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t>r25</t>
+  </si>
+  <si>
     <t>s26</t>
   </si>
   <si>
+    <t>c26</t>
+  </si>
+  <si>
+    <t>r26</t>
+  </si>
+  <si>
     <t>s27</t>
   </si>
   <si>
+    <t>c27</t>
+  </si>
+  <si>
+    <t>r27</t>
+  </si>
+  <si>
     <t>s28</t>
   </si>
   <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>r28</t>
+  </si>
+  <si>
     <t>s29</t>
   </si>
   <si>
+    <t>c29</t>
+  </si>
+  <si>
+    <t>r29</t>
+  </si>
+  <si>
     <t>s30</t>
   </si>
   <si>
+    <t>c30</t>
+  </si>
+  <si>
+    <t>r30</t>
+  </si>
+  <si>
     <t>s31</t>
   </si>
   <si>
+    <t>c31</t>
+  </si>
+  <si>
+    <t>r31</t>
+  </si>
+  <si>
     <t>s32</t>
   </si>
   <si>
+    <t>c32</t>
+  </si>
+  <si>
+    <t>r32</t>
+  </si>
+  <si>
     <t>s33</t>
   </si>
   <si>
+    <t>c33</t>
+  </si>
+  <si>
+    <t>r33</t>
+  </si>
+  <si>
     <t>s34</t>
   </si>
   <si>
+    <t>c34</t>
+  </si>
+  <si>
+    <t>r34</t>
+  </si>
+  <si>
     <t>s35</t>
   </si>
   <si>
+    <t>c35</t>
+  </si>
+  <si>
+    <t>r35</t>
+  </si>
+  <si>
+    <t>s36</t>
+  </si>
+  <si>
+    <t>c36</t>
+  </si>
+  <si>
+    <t>r36</t>
+  </si>
+  <si>
+    <t>s37</t>
+  </si>
+  <si>
+    <t>c37</t>
+  </si>
+  <si>
+    <t>r37</t>
+  </si>
+  <si>
+    <t>s38</t>
+  </si>
+  <si>
+    <t>c38</t>
+  </si>
+  <si>
+    <t>r38</t>
+  </si>
+  <si>
+    <t>s39</t>
+  </si>
+  <si>
+    <t>c39</t>
+  </si>
+  <si>
+    <t>r39</t>
+  </si>
+  <si>
+    <t>s40</t>
+  </si>
+  <si>
+    <t>c40</t>
+  </si>
+  <si>
+    <t>r40</t>
+  </si>
+  <si>
+    <t>s41</t>
+  </si>
+  <si>
+    <t>c41</t>
+  </si>
+  <si>
+    <t>r41</t>
+  </si>
+  <si>
+    <t>s42</t>
+  </si>
+  <si>
+    <t>c42</t>
+  </si>
+  <si>
+    <t>r42</t>
+  </si>
+  <si>
+    <t>s43</t>
+  </si>
+  <si>
+    <t>c43</t>
+  </si>
+  <si>
+    <t>r43</t>
+  </si>
+  <si>
+    <t>s44</t>
+  </si>
+  <si>
+    <t>c44</t>
+  </si>
+  <si>
+    <t>r44</t>
+  </si>
+  <si>
+    <t>s45</t>
+  </si>
+  <si>
+    <t>c45</t>
+  </si>
+  <si>
+    <t>r45</t>
+  </si>
+  <si>
+    <t>s46</t>
+  </si>
+  <si>
+    <t>c46</t>
+  </si>
+  <si>
+    <t>r46</t>
+  </si>
+  <si>
+    <t>s47</t>
+  </si>
+  <si>
+    <t>c47</t>
+  </si>
+  <si>
+    <t>r47</t>
+  </si>
+  <si>
+    <t>s48</t>
+  </si>
+  <si>
+    <t>c48</t>
+  </si>
+  <si>
+    <t>r48</t>
+  </si>
+  <si>
+    <t>s49</t>
+  </si>
+  <si>
+    <t>c49</t>
+  </si>
+  <si>
+    <t>r49</t>
+  </si>
+  <si>
+    <t>s50</t>
+  </si>
+  <si>
+    <t>c50</t>
+  </si>
+  <si>
+    <t>r50</t>
+  </si>
+  <si>
+    <t>s51</t>
+  </si>
+  <si>
+    <t>c51</t>
+  </si>
+  <si>
+    <t>r51</t>
+  </si>
+  <si>
+    <t>s52</t>
+  </si>
+  <si>
+    <t>c52</t>
+  </si>
+  <si>
+    <t>r52</t>
+  </si>
+  <si>
+    <t>s53</t>
+  </si>
+  <si>
+    <t>c53</t>
+  </si>
+  <si>
+    <t>r53</t>
+  </si>
+  <si>
+    <t>s54</t>
+  </si>
+  <si>
+    <t>c54</t>
+  </si>
+  <si>
+    <t>r54</t>
+  </si>
+  <si>
+    <t>s55</t>
+  </si>
+  <si>
+    <t>c55</t>
+  </si>
+  <si>
+    <t>r55</t>
+  </si>
+  <si>
+    <t>s56</t>
+  </si>
+  <si>
+    <t>c56</t>
+  </si>
+  <si>
+    <t>r56</t>
+  </si>
+  <si>
+    <t>s57</t>
+  </si>
+  <si>
+    <t>c57</t>
+  </si>
+  <si>
+    <t>r57</t>
+  </si>
+  <si>
+    <t>s58</t>
+  </si>
+  <si>
+    <t>c58</t>
+  </si>
+  <si>
+    <t>r58</t>
+  </si>
+  <si>
+    <t>s59</t>
+  </si>
+  <si>
+    <t>c59</t>
+  </si>
+  <si>
+    <t>r59</t>
+  </si>
+  <si>
+    <t>s60</t>
+  </si>
+  <si>
+    <t>c60</t>
+  </si>
+  <si>
+    <t>r60</t>
+  </si>
+  <si>
+    <t>s61</t>
+  </si>
+  <si>
+    <t>c61</t>
+  </si>
+  <si>
+    <t>r61</t>
+  </si>
+  <si>
+    <t>s62</t>
+  </si>
+  <si>
+    <t>c62</t>
+  </si>
+  <si>
+    <t>r62</t>
+  </si>
+  <si>
+    <t>s63</t>
+  </si>
+  <si>
+    <t>c63</t>
+  </si>
+  <si>
+    <t>r63</t>
+  </si>
+  <si>
+    <t>s64</t>
+  </si>
+  <si>
+    <t>c64</t>
+  </si>
+  <si>
+    <t>r64</t>
+  </si>
+  <si>
+    <t>s65</t>
+  </si>
+  <si>
+    <t>c65</t>
+  </si>
+  <si>
+    <t>r65</t>
+  </si>
+  <si>
+    <t>s66</t>
+  </si>
+  <si>
+    <t>c66</t>
+  </si>
+  <si>
+    <t>r66</t>
+  </si>
+  <si>
+    <t>s67</t>
+  </si>
+  <si>
+    <t>c67</t>
+  </si>
+  <si>
+    <t>r67</t>
+  </si>
+  <si>
+    <t>s68</t>
+  </si>
+  <si>
+    <t>c68</t>
+  </si>
+  <si>
+    <t>r68</t>
+  </si>
+  <si>
+    <t>s69</t>
+  </si>
+  <si>
+    <t>c69</t>
+  </si>
+  <si>
+    <t>r69</t>
+  </si>
+  <si>
     <t>701</t>
   </si>
   <si>
     <t>七年一班</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>702</t>
   </si>
   <si>
@@ -129,6 +594,9 @@
     <t>八年一班</t>
   </si>
   <si>
+    <t>資訊科技_x000D_黃鼎皓</t>
+  </si>
+  <si>
     <t>802</t>
   </si>
   <si>
@@ -153,255 +621,224 @@
     <t>九年二班</t>
   </si>
   <si>
+    <t>數學_x000D_黃鼎皓</t>
+  </si>
+  <si>
     <t>903</t>
   </si>
   <si>
     <t>九年三班</t>
   </si>
   <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s7</t>
-  </si>
-  <si>
-    <t>s8</t>
-  </si>
-  <si>
-    <t>s9</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_游仁芳</t>
-  </si>
-  <si>
-    <t>英語_x000D_陳詩懿</t>
-  </si>
-  <si>
-    <t>表演藝術_x000D_劉章懿</t>
-  </si>
-  <si>
-    <t>國文_x000D_田妙呈</t>
-  </si>
-  <si>
-    <t>資訊科技_x000D_黃鼎鳳</t>
-  </si>
-  <si>
-    <t>體育_x000D_洪薪鳳</t>
-  </si>
-  <si>
-    <t>數學_x000D_游仁芳</t>
-  </si>
-  <si>
-    <t>地理_x000D_蔡玉圳</t>
-  </si>
-  <si>
-    <t>自然科學_x000D_林詩圳</t>
-  </si>
-  <si>
-    <t>數位-環境_x000D_張詩儀</t>
-  </si>
-  <si>
-    <t>視覺藝術_x000D_杜章玉</t>
-  </si>
-  <si>
-    <t>閱讀理解與口語表_x000D_劉章懿</t>
-  </si>
-  <si>
-    <t>綜合23_x000D_王章圳</t>
-  </si>
-  <si>
-    <t>歷史_x000D_李敏翔</t>
-  </si>
-  <si>
-    <t>公民_x000D_簡妙芳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_游仁芳</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_游仁芳</t>
-  </si>
-  <si>
-    <t>健康教育_x000D_洪薪鳳</t>
-  </si>
-  <si>
-    <t>時事議題_x000D_李敏翔</t>
-  </si>
-  <si>
-    <t>音樂_x000D_何詩懿</t>
-  </si>
-  <si>
-    <t>國際教育_x000D_陳詩懿</t>
-  </si>
-  <si>
-    <t>體育_x000D_王章圳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_王章圳</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_王章圳</t>
-  </si>
-  <si>
-    <t>時事議題_x000D_蔡玉圳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_蔡玉圳</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_蔡玉圳</t>
-  </si>
-  <si>
-    <t>時事議題_x000D_簡妙芳</t>
-  </si>
-  <si>
-    <t>英語_x000D_張誠田</t>
-  </si>
-  <si>
-    <t>國文_x000D_蔡淑田</t>
-  </si>
-  <si>
-    <t>體育_x000D_尹惠禎</t>
-  </si>
-  <si>
-    <t>數學_x000D_黃玉融</t>
-  </si>
-  <si>
-    <t>綜合23_x000D_廖仁呈</t>
-  </si>
-  <si>
-    <t>自然科學_x000D_張詩儀</t>
-  </si>
-  <si>
-    <t>問題解決_x000D_張師文</t>
-  </si>
-  <si>
-    <t>國際教育_x000D_張誠田</t>
-  </si>
-  <si>
-    <t>生活科技_x000D_杜昶茹</t>
-  </si>
-  <si>
-    <t>健康教育_x000D_尹惠禎</t>
-  </si>
-  <si>
-    <t>數位-環境_x000D_林詩圳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_張誠田</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_張誠田</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_張誠田</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_蔡淑田</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_蔡淑田</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_蔡淑田</t>
-  </si>
-  <si>
-    <t>數位-環境_x000D_黃玉融</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_黃玉融</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_黃玉融</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_黃玉融</t>
-  </si>
-  <si>
-    <t>數學_x000D_郭昶如</t>
-  </si>
-  <si>
-    <t>國文_x000D_陳靜豪</t>
-  </si>
-  <si>
-    <t>表演藝術_x000D_杜章玉</t>
-  </si>
-  <si>
-    <t>社會_x000D_李敏翔</t>
-  </si>
-  <si>
-    <t>自然與生活科技_x000D_張師文</t>
-  </si>
-  <si>
-    <t>趣味科學_x000D_蔡玉圳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_陳詩懿</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_陳詩懿</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_陳詩懿</t>
-  </si>
-  <si>
-    <t>英語_x000D_孫仁皓</t>
-  </si>
-  <si>
-    <t>數學_x000D_黃鼎鳳</t>
-  </si>
-  <si>
-    <t>自然與生活科技_x000D_張詩儀</t>
-  </si>
-  <si>
-    <t>社會_x000D_蔡玉圳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_李敏翔</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_李敏翔</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_李敏翔</t>
-  </si>
-  <si>
-    <t>國文_x000D_劉育柔</t>
-  </si>
-  <si>
-    <t>社會_x000D_簡妙芳</t>
-  </si>
-  <si>
-    <t>週會/社團_x000D_杜章玉</t>
-  </si>
-  <si>
-    <t>班會/社團_x000D_杜章玉</t>
-  </si>
-  <si>
-    <t>綜合1_x000D_杜章玉</t>
+    <t>自然科學_x000D_洪昶兆</t>
+  </si>
+  <si>
+    <t>英語_x000D_游敏玉</t>
+  </si>
+  <si>
+    <t>國際教育_x000D_游敏玉</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_游敏玉</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_游敏玉</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_游敏玉</t>
+  </si>
+  <si>
+    <t>表演藝術_x000D_蔡嘉禎</t>
+  </si>
+  <si>
+    <t>閱讀理解與口語表_x000D_蔡嘉禎</t>
+  </si>
+  <si>
+    <t>國文_x000D_簡惠皓</t>
+  </si>
+  <si>
+    <t>體育_x000D_楊育豪</t>
+  </si>
+  <si>
+    <t>健康教育_x000D_楊育豪</t>
+  </si>
+  <si>
+    <t>數學_x000D_杜誠溢</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_杜誠溢</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_杜誠溢</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_杜誠溢</t>
+  </si>
+  <si>
+    <t>地理_x000D_何燕茹</t>
+  </si>
+  <si>
+    <t>時事議題_x000D_何燕茹</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_何燕茹</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_何燕茹</t>
+  </si>
+  <si>
+    <t>趣味科學_x000D_何燕茹</t>
+  </si>
+  <si>
+    <t>社會_x000D_何燕茹</t>
+  </si>
+  <si>
+    <t>公民_x000D_王玉霖</t>
+  </si>
+  <si>
+    <t>時事議題_x000D_王玉霖</t>
+  </si>
+  <si>
+    <t>社會_x000D_王玉霖</t>
+  </si>
+  <si>
+    <t>數位-環境_x000D_李鼎如</t>
+  </si>
+  <si>
+    <t>視覺藝術_x000D_何益瑾</t>
+  </si>
+  <si>
+    <t>表演藝術_x000D_何益瑾</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_何益瑾</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_何益瑾</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_何益瑾</t>
+  </si>
+  <si>
+    <t>生活科技_x000D_張晸如</t>
+  </si>
+  <si>
+    <t>綜合23_x000D_蔡靜呈</t>
+  </si>
+  <si>
+    <t>體育_x000D_蔡靜呈</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_蔡靜呈</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_蔡靜呈</t>
+  </si>
+  <si>
+    <t>歷史_x000D_體安懿</t>
+  </si>
+  <si>
+    <t>時事議題_x000D_體安懿</t>
+  </si>
+  <si>
+    <t>社會_x000D_體安懿</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_體安懿</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_體安懿</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_體安懿</t>
+  </si>
+  <si>
+    <t>音樂_x000D_黃育淳</t>
+  </si>
+  <si>
+    <t>英語_x000D_廖妙圳</t>
+  </si>
+  <si>
+    <t>國際教育_x000D_廖妙圳</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_廖妙圳</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_廖妙圳</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_廖妙圳</t>
+  </si>
+  <si>
+    <t>國文_x000D_張薪翔</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_張薪翔</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_張薪翔</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_張薪翔</t>
+  </si>
+  <si>
+    <t>體育_x000D_黃師柔</t>
+  </si>
+  <si>
+    <t>健康教育_x000D_黃師柔</t>
+  </si>
+  <si>
+    <t>數學_x000D_張詩潔</t>
+  </si>
+  <si>
+    <t>數位-環境_x000D_張詩潔</t>
+  </si>
+  <si>
+    <t>週會/社團_x000D_張詩潔</t>
+  </si>
+  <si>
+    <t>班會/社團_x000D_張詩潔</t>
+  </si>
+  <si>
+    <t>綜合1_x000D_張詩潔</t>
+  </si>
+  <si>
+    <t>綜合23_x000D_郭詩芳</t>
+  </si>
+  <si>
+    <t>自然科學_x000D_陳章田</t>
+  </si>
+  <si>
+    <t>數位-環境_x000D_陳章田</t>
+  </si>
+  <si>
+    <t>自然與生活科技_x000D_陳章田</t>
+  </si>
+  <si>
+    <t>問題解決_x000D_劉海儀</t>
+  </si>
+  <si>
+    <t>自然與生活科技_x000D_劉海儀</t>
+  </si>
+  <si>
+    <t>數學_x000D_林映玉</t>
+  </si>
+  <si>
+    <t>國文_x000D_陳淑文</t>
+  </si>
+  <si>
+    <t>英語_x000D_劉田媛</t>
+  </si>
+  <si>
+    <t>國文_x000D_田台體</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,11 +848,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,15 +870,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -537,44 +968,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -607,9 +1038,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -648,1318 +1079,5638 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:FZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>27</v>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="V2" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="Y2" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="Z2" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="AB2" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="AD2" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="AE2" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="AG2" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AH2" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="AI2" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="AJ2" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
-        <v>61</v>
+        <v>184</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>215</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>216</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>217</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>213</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>239</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>205</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="Z3" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AA3" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="AB3" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="AE3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="AF3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AG3" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="AH3" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="AI3" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AJ3" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="AK3" t="s">
-        <v>58</v>
+        <v>184</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>237</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>227</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>234</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>234</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>244</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="AA4" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="AB4" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AC4" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AD4" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="AE4" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="AF4" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="AG4" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="AH4" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AI4" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="AJ4" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="AK4" t="s">
-        <v>66</v>
+        <v>184</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>220</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>221</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>209</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>214</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>225</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>204</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>244</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>203</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>210</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="X5" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="Z5" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="AA5" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="AB5" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="AD5" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="AE5" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AF5" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="AG5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="AH5" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="AJ5" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="AK5" t="s">
-        <v>83</v>
+        <v>184</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>265</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>224</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>256</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>245</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>262</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>247</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>248</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>244</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>257</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>254</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>250</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>256</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>238</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>245</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="X6" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="AB6" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AD6" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="AF6" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="AG6" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="AH6" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="AI6" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="AJ6" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="AK6" t="s">
-        <v>84</v>
+        <v>184</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>265</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>256</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>224</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>245</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>262</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>250</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>251</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>252</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>253</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>257</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>262</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>238</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>256</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>245</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>250</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="Q7" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="T7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="U7" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="X7" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="Z7" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="AA7" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="AB7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="AC7" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AD7" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="AE7" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="AF7" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="AG7" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="AH7" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="AI7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="AJ7" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="AK7" t="s">
-        <v>86</v>
+        <v>184</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>262</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>250</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>244</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>250</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>256</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>218</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>258</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>259</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>260</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>261</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>261</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>224</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>245</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>250</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>209</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>256</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="Q8" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="T8" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="U8" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="Z8" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="AA8" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="AB8" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="AD8" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="AF8" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="AG8" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="AH8" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="AI8" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="AJ8" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="AK8" t="s">
-        <v>85</v>
+        <v>184</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>222</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>204</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>268</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>268</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>206</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>207</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>208</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>218</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>266</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>267</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>267</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>204</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>268</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>254</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="Q9" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="R9" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="S9" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="U9" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="W9" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="Z9" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="AA9" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="AB9" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="AC9" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="AD9" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="AE9" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="AF9" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="AG9" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="AH9" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="AI9" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="AJ9" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="AK9" t="s">
-        <v>87</v>
+        <v>184</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>244</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>269</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>264</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>269</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>200</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>241</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>242</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>243</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>228</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>254</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>200</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>269</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>261</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>261</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:182" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="Q10" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="T10" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="V10" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="Z10" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="AA10" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="AB10" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="AD10" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AE10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="AF10" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="AG10" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="AH10" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="AI10" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="AJ10" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="AK10" t="s">
-        <v>67</v>
+        <v>184</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>270</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>254</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>222</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>267</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>269</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>230</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>231</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>264</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>267</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>270</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>269</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>270</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>234</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>234</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>184</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FB10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FD10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FG10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FH10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FI10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FL10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FN10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FR10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FS10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FT10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY10" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ10" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>